--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cd14-Itgb1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>1.029662</v>
+        <v>0.5439096666666666</v>
       </c>
       <c r="H2">
-        <v>3.088986</v>
+        <v>1.631729</v>
       </c>
       <c r="I2">
-        <v>0.008285277389098726</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="J2">
-        <v>0.008285277389098728</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N2">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P2">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q2">
-        <v>158.0829950454747</v>
+        <v>79.24804346473178</v>
       </c>
       <c r="R2">
-        <v>1422.746955409272</v>
+        <v>713.2323911825861</v>
       </c>
       <c r="S2">
-        <v>0.002628261467229324</v>
+        <v>0.001001137939292575</v>
       </c>
       <c r="T2">
-        <v>0.002628261467229324</v>
+        <v>0.001001137939292575</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>1.029662</v>
+        <v>0.5439096666666666</v>
       </c>
       <c r="H3">
-        <v>3.088986</v>
+        <v>1.631729</v>
       </c>
       <c r="I3">
-        <v>0.008285277389098726</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="J3">
-        <v>0.008285277389098728</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O3">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P3">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q3">
-        <v>173.8066394471654</v>
+        <v>91.81179001085911</v>
       </c>
       <c r="R3">
-        <v>1564.259755024488</v>
+        <v>826.3061100977321</v>
       </c>
       <c r="S3">
-        <v>0.002889680152354133</v>
+        <v>0.001159855338196963</v>
       </c>
       <c r="T3">
-        <v>0.002889680152354133</v>
+        <v>0.001159855338196963</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>1.029662</v>
+        <v>0.5439096666666666</v>
       </c>
       <c r="H4">
-        <v>3.088986</v>
+        <v>1.631729</v>
       </c>
       <c r="I4">
-        <v>0.008285277389098726</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="J4">
-        <v>0.008285277389098728</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N4">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P4">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q4">
-        <v>96.33792900652601</v>
+        <v>69.68905407602844</v>
       </c>
       <c r="R4">
-        <v>867.0413610587341</v>
+        <v>627.201486684256</v>
       </c>
       <c r="S4">
-        <v>0.001601698314026058</v>
+        <v>0.0008803795392118843</v>
       </c>
       <c r="T4">
-        <v>0.001601698314026058</v>
+        <v>0.0008803795392118843</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>1.029662</v>
+        <v>0.5439096666666666</v>
       </c>
       <c r="H5">
-        <v>3.088986</v>
+        <v>1.631729</v>
       </c>
       <c r="I5">
-        <v>0.008285277389098726</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="J5">
-        <v>0.008285277389098728</v>
+        <v>0.003493229883501837</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N5">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P5">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q5">
-        <v>70.11001850404668</v>
+        <v>35.76808655853033</v>
       </c>
       <c r="R5">
-        <v>630.9901665364201</v>
+        <v>321.912779026773</v>
       </c>
       <c r="S5">
-        <v>0.001165637455489212</v>
+        <v>0.000451857066800415</v>
       </c>
       <c r="T5">
-        <v>0.001165637455489212</v>
+        <v>0.000451857066800415</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.051567</v>
       </c>
       <c r="I6">
-        <v>0.00818491215771772</v>
+        <v>0.00653284034046588</v>
       </c>
       <c r="J6">
-        <v>0.008184912157717722</v>
+        <v>0.006532840340465881</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N6">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P6">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q6">
-        <v>156.168027612276</v>
+        <v>148.205194766742</v>
       </c>
       <c r="R6">
-        <v>1405.512248510484</v>
+        <v>1333.846752900678</v>
       </c>
       <c r="S6">
-        <v>0.002596423538587933</v>
+        <v>0.001872271374715547</v>
       </c>
       <c r="T6">
-        <v>0.002596423538587933</v>
+        <v>0.001872271374715547</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.051567</v>
       </c>
       <c r="I7">
-        <v>0.00818491215771772</v>
+        <v>0.00653284034046588</v>
       </c>
       <c r="J7">
-        <v>0.008184912157717722</v>
+        <v>0.006532840340465881</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O7">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P7">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q7">
         <v>171.701200755804</v>
@@ -883,10 +883,10 @@
         <v>1545.310806802236</v>
       </c>
       <c r="S7">
-        <v>0.002854675480393515</v>
+        <v>0.002169095649348447</v>
       </c>
       <c r="T7">
-        <v>0.002854675480393515</v>
+        <v>0.002169095649348447</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.051567</v>
       </c>
       <c r="I8">
-        <v>0.00818491215771772</v>
+        <v>0.00653284034046588</v>
       </c>
       <c r="J8">
-        <v>0.008184912157717722</v>
+        <v>0.006532840340465881</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N8">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P8">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q8">
-        <v>95.170921786197</v>
+        <v>130.328515139232</v>
       </c>
       <c r="R8">
-        <v>856.538296075773</v>
+        <v>1172.956636253088</v>
       </c>
       <c r="S8">
-        <v>0.001582295846934093</v>
+        <v>0.001646435866086949</v>
       </c>
       <c r="T8">
-        <v>0.001582295846934093</v>
+        <v>0.00164643586608695</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.051567</v>
       </c>
       <c r="I9">
-        <v>0.00818491215771772</v>
+        <v>0.00653284034046588</v>
       </c>
       <c r="J9">
-        <v>0.008184912157717722</v>
+        <v>0.006532840340465881</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N9">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P9">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q9">
-        <v>69.26072790111</v>
+        <v>66.89144618693099</v>
       </c>
       <c r="R9">
-        <v>623.3465511099901</v>
+        <v>602.023015682379</v>
       </c>
       <c r="S9">
-        <v>0.001151517291802179</v>
+        <v>0.0008450374503149371</v>
       </c>
       <c r="T9">
-        <v>0.00115151729180218</v>
+        <v>0.0008450374503149372</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>1.232029333333333</v>
+        <v>0.21601</v>
       </c>
       <c r="H10">
-        <v>3.696088</v>
+        <v>0.6480299999999999</v>
       </c>
       <c r="I10">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="J10">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N10">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P10">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q10">
-        <v>189.1522528725084</v>
+        <v>31.47281785544666</v>
       </c>
       <c r="R10">
-        <v>1702.370275852576</v>
+        <v>283.25536069902</v>
       </c>
       <c r="S10">
-        <v>0.003144813757617773</v>
+        <v>0.0003975950778589872</v>
       </c>
       <c r="T10">
-        <v>0.003144813757617773</v>
+        <v>0.0003975950778589872</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>1.232029333333333</v>
+        <v>0.21601</v>
       </c>
       <c r="H11">
-        <v>3.696088</v>
+        <v>0.6480299999999999</v>
       </c>
       <c r="I11">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="J11">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O11">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P11">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q11">
-        <v>207.9661851432783</v>
+        <v>36.46242377302666</v>
       </c>
       <c r="R11">
-        <v>1871.695666289504</v>
+        <v>328.16181395724</v>
       </c>
       <c r="S11">
-        <v>0.003457611052608941</v>
+        <v>0.0004606286061054121</v>
       </c>
       <c r="T11">
-        <v>0.003457611052608941</v>
+        <v>0.0004606286061054121</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>1.232029333333333</v>
+        <v>0.21601</v>
       </c>
       <c r="H12">
-        <v>3.696088</v>
+        <v>0.6480299999999999</v>
       </c>
       <c r="I12">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="J12">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N12">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P12">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q12">
-        <v>115.2719576410747</v>
+        <v>27.67653066954666</v>
       </c>
       <c r="R12">
-        <v>1037.447618769672</v>
+        <v>249.08877602592</v>
       </c>
       <c r="S12">
-        <v>0.001916492311098835</v>
+        <v>0.0003496367060924194</v>
       </c>
       <c r="T12">
-        <v>0.001916492311098835</v>
+        <v>0.0003496367060924194</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>1.232029333333333</v>
+        <v>0.21601</v>
       </c>
       <c r="H13">
-        <v>3.696088</v>
+        <v>0.6480299999999999</v>
       </c>
       <c r="I13">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="J13">
-        <v>0.009913646204456457</v>
+        <v>0.001387312330298533</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N13">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P13">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q13">
-        <v>83.88927566281779</v>
+        <v>14.20505067479</v>
       </c>
       <c r="R13">
-        <v>755.0034809653602</v>
+        <v>127.84545607311</v>
       </c>
       <c r="S13">
-        <v>0.001394729083130908</v>
+        <v>0.0001794519402417147</v>
       </c>
       <c r="T13">
-        <v>0.001394729083130908</v>
+        <v>0.0001794519402417147</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>120.9972243333333</v>
+        <v>153.9268343333333</v>
       </c>
       <c r="H14">
-        <v>362.991673</v>
+        <v>461.780503</v>
       </c>
       <c r="I14">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="J14">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>153.5290173333333</v>
+        <v>145.7007446666667</v>
       </c>
       <c r="N14">
-        <v>460.587052</v>
+        <v>437.1022340000001</v>
       </c>
       <c r="O14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="P14">
-        <v>0.3172206968818489</v>
+        <v>0.2865937750105843</v>
       </c>
       <c r="Q14">
-        <v>18576.58495195755</v>
+        <v>22427.2543865493</v>
       </c>
       <c r="R14">
-        <v>167189.264567618</v>
+        <v>201845.2894789437</v>
       </c>
       <c r="S14">
-        <v>0.3088511981184139</v>
+        <v>0.2833227706187171</v>
       </c>
       <c r="T14">
-        <v>0.3088511981184139</v>
+        <v>0.2833227706187171</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>120.9972243333333</v>
+        <v>153.9268343333333</v>
       </c>
       <c r="H15">
-        <v>362.991673</v>
+        <v>461.780503</v>
       </c>
       <c r="I15">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="J15">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>506.3991080000001</v>
       </c>
       <c r="O15">
-        <v>0.3487728915577651</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="P15">
-        <v>0.348772891557765</v>
+        <v>0.3320294904365841</v>
       </c>
       <c r="Q15">
-        <v>20424.29549095863</v>
+        <v>25982.80386788793</v>
       </c>
       <c r="R15">
-        <v>183818.6594186277</v>
+        <v>233845.2348109913</v>
       </c>
       <c r="S15">
-        <v>0.3395709248724085</v>
+        <v>0.3282399108429333</v>
       </c>
       <c r="T15">
-        <v>0.3395709248724084</v>
+        <v>0.3282399108429333</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>120.9972243333333</v>
+        <v>153.9268343333333</v>
       </c>
       <c r="H16">
-        <v>362.991673</v>
+        <v>461.780503</v>
       </c>
       <c r="I16">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="J16">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>93.562673</v>
+        <v>128.1261546666667</v>
       </c>
       <c r="N16">
-        <v>280.688019</v>
+        <v>384.378464</v>
       </c>
       <c r="O16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="P16">
-        <v>0.1933186106880956</v>
+        <v>0.2520245069956105</v>
       </c>
       <c r="Q16">
-        <v>11320.82373420731</v>
+        <v>19722.05338314304</v>
       </c>
       <c r="R16">
-        <v>101887.4136078658</v>
+        <v>177498.4804482874</v>
       </c>
       <c r="S16">
-        <v>0.1882181242160366</v>
+        <v>0.2491480548842192</v>
       </c>
       <c r="T16">
-        <v>0.1882181242160366</v>
+        <v>0.2491480548842192</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>120.9972243333333</v>
+        <v>153.9268343333333</v>
       </c>
       <c r="H17">
-        <v>362.991673</v>
+        <v>461.780503</v>
       </c>
       <c r="I17">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="J17">
-        <v>0.9736161642487271</v>
+        <v>0.9885866174457337</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>68.09032333333334</v>
+        <v>65.761079</v>
       </c>
       <c r="N17">
-        <v>204.27097</v>
+        <v>197.283237</v>
       </c>
       <c r="O17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="P17">
-        <v>0.1406878008722904</v>
+        <v>0.1293522275572212</v>
       </c>
       <c r="Q17">
-        <v>8238.740127292536</v>
+        <v>10122.39471281424</v>
       </c>
       <c r="R17">
-        <v>74148.66114563282</v>
+        <v>91101.5524153282</v>
       </c>
       <c r="S17">
-        <v>0.1369759170418681</v>
+        <v>0.1278758810998642</v>
       </c>
       <c r="T17">
-        <v>0.1369759170418681</v>
+        <v>0.1278758810998642</v>
       </c>
     </row>
   </sheetData>
